--- a/QUANGHANH2/excel/CDVT/download/tieu-hao-vat-tu-chi-tiet.xlsx
+++ b/QUANGHANH2/excel/CDVT/download/tieu-hao-vat-tu-chi-tiet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\GitHub\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\CDVT\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã vật tư</t>
   </si>
@@ -38,13 +38,16 @@
     <t>Số lượng cấp</t>
   </si>
   <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
     <t>Sử dụng</t>
   </si>
   <si>
     <t>Thu hồi</t>
+  </si>
+  <si>
+    <t>Số lượng thực lĩnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn vị </t>
   </si>
 </sst>
 </file>
@@ -68,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,7 +99,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -383,11 +392,13 @@
     <col min="2" max="2" width="28.53125" customWidth="1"/>
     <col min="3" max="3" width="20.796875" customWidth="1"/>
     <col min="4" max="4" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,13 +412,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
